--- a/data/playerParam.xlsx
+++ b/data/playerParam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A17\2DAction\2DAction_remeke\project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A17\2DAction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DC5EA6-15FB-4DDF-8689-137E6D92C8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1B4640-E3A0-4C62-AF1B-B009A2516A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="1644" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">MoveSpeed </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キャラクターの重さ</t>
     <rPh sb="7" eb="8">
       <t>オモ</t>
@@ -63,6 +59,10 @@
     <rPh sb="4" eb="6">
       <t>ソクド</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -391,7 +391,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -407,7 +407,7 @@
         <v>0.05</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -418,18 +418,18 @@
         <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/playerParam.xlsx
+++ b/data/playerParam.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A17\2DAction\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GE2A17\2DAction_remeke\project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1B4640-E3A0-4C62-AF1B-B009A2516A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154C25CD-29DB-4200-97B0-BDFF4C88C9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="1644" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -404,7 +404,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -426,7 +426,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
